--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1023,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1051,24 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,7 +1068,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1095,11 +1097,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,14 +1435,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1588,14 +1589,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1745,14 +1746,14 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1902,14 +1903,14 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -2059,14 +2060,14 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -2412,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,31 +2432,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2464,7 +2465,7 @@
       <c r="B2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2473,7 +2474,7 @@
       <c r="E2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="27" t="s">
         <v>263</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -2482,7 +2483,7 @@
       <c r="H2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="27" t="s">
         <v>263</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -2491,7 +2492,7 @@
       <c r="K2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="27" t="s">
         <v>263</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -2500,7 +2501,7 @@
       <c r="N2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="27" t="s">
         <v>263</v>
       </c>
       <c r="S2" t="s">
@@ -2511,38 +2512,23 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>254</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>254</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>254</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="19" t="s">
         <v>254</v>
       </c>
       <c r="S3">
@@ -2554,49 +2540,49 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="23">
         <v>30</v>
       </c>
       <c r="C4" s="18" t="e">
         <f t="shared" ref="C4:C19" si="0">B4/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="23">
         <v>40</v>
       </c>
       <c r="F4" s="18" t="e">
         <f t="shared" ref="F4:F27" si="1">E4/E3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="23">
         <v>50</v>
       </c>
       <c r="I4" s="18" t="e">
         <f t="shared" ref="I4:I28" si="2">H4/H3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="23">
         <v>60</v>
       </c>
       <c r="L4" s="18" t="e">
         <f t="shared" ref="L4:L26" si="3">K4/K3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="29">
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="23">
         <v>70</v>
       </c>
       <c r="O4" s="5" t="e">
@@ -2613,9 +2599,9 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="29">
+        <v>26</v>
+      </c>
+      <c r="B5" s="23">
         <f>B4*21</f>
         <v>630</v>
       </c>
@@ -2623,10 +2609,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="23">
         <f>E4*21</f>
         <v>840</v>
       </c>
@@ -2634,10 +2620,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="29">
+      <c r="G5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="23">
         <f>H4*21</f>
         <v>1050</v>
       </c>
@@ -2645,10 +2631,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="29">
+      <c r="J5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="23">
         <f>K4*21</f>
         <v>1260</v>
       </c>
@@ -2656,10 +2642,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="29">
+      <c r="M5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="23">
         <f>N4*21</f>
         <v>1470</v>
       </c>
@@ -2677,20 +2663,20 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="29">
-        <f t="shared" ref="B6:B31" si="6">B5*21</f>
+        <v>27</v>
+      </c>
+      <c r="B6" s="23">
+        <f t="shared" ref="B6:B32" si="6">B5*21</f>
         <v>13230</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="23">
         <f t="shared" ref="E6:E29" si="7">E5*21</f>
         <v>17640</v>
       </c>
@@ -2698,10 +2684,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="29">
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" ref="H6:H27" si="8">H5*21</f>
         <v>22050</v>
       </c>
@@ -2709,10 +2695,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="29">
+      <c r="J6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="23">
         <f t="shared" ref="K6:K28" si="9">K5*21</f>
         <v>26460</v>
       </c>
@@ -2720,10 +2706,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="29">
+      <c r="M6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="23">
         <f t="shared" ref="N6:N28" si="10">N5*21</f>
         <v>30870</v>
       </c>
@@ -2741,9 +2727,9 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="29">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23">
         <f t="shared" si="6"/>
         <v>277830</v>
       </c>
@@ -2751,10 +2737,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="D7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="7"/>
         <v>370440</v>
       </c>
@@ -2762,10 +2748,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="G7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="8"/>
         <v>463050</v>
       </c>
@@ -2773,10 +2759,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="23">
         <f t="shared" si="9"/>
         <v>555660</v>
       </c>
@@ -2784,10 +2770,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="29">
+      <c r="M7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="23">
         <f t="shared" si="10"/>
         <v>648270</v>
       </c>
@@ -2805,9 +2791,9 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="29">
+        <v>29</v>
+      </c>
+      <c r="B8" s="23">
         <f t="shared" si="6"/>
         <v>5834430</v>
       </c>
@@ -2815,10 +2801,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="23">
         <f t="shared" si="7"/>
         <v>7779240</v>
       </c>
@@ -2826,10 +2812,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="G8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="8"/>
         <v>9724050</v>
       </c>
@@ -2837,10 +2823,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="J8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="23">
         <f t="shared" si="9"/>
         <v>11668860</v>
       </c>
@@ -2848,10 +2834,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="29">
+      <c r="M8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="23">
         <f t="shared" si="10"/>
         <v>13613670</v>
       </c>
@@ -2869,9 +2855,9 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="29">
+        <v>30</v>
+      </c>
+      <c r="B9" s="23">
         <f t="shared" si="6"/>
         <v>122523030</v>
       </c>
@@ -2879,10 +2865,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="D9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
         <f t="shared" si="7"/>
         <v>163364040</v>
       </c>
@@ -2890,10 +2876,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="G9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="8"/>
         <v>204205050</v>
       </c>
@@ -2901,10 +2887,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="J9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="23">
         <f t="shared" si="9"/>
         <v>245046060</v>
       </c>
@@ -2912,10 +2898,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="29">
+      <c r="M9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="23">
         <f t="shared" si="10"/>
         <v>285887070</v>
       </c>
@@ -2933,9 +2919,9 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="29">
+        <v>31</v>
+      </c>
+      <c r="B10" s="23">
         <f t="shared" si="6"/>
         <v>2572983630</v>
       </c>
@@ -2943,10 +2929,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="7"/>
         <v>3430644840</v>
       </c>
@@ -2954,10 +2940,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="G10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="23">
         <f t="shared" si="8"/>
         <v>4288306050</v>
       </c>
@@ -2965,10 +2951,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="J10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="23">
         <f t="shared" si="9"/>
         <v>5145967260</v>
       </c>
@@ -2976,10 +2962,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="29">
+      <c r="M10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="23">
         <f t="shared" si="10"/>
         <v>6003628470</v>
       </c>
@@ -2997,9 +2983,9 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="29">
+        <v>32</v>
+      </c>
+      <c r="B11" s="23">
         <f t="shared" si="6"/>
         <v>54032656230</v>
       </c>
@@ -3007,10 +2993,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="D11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="7"/>
         <v>72043541640</v>
       </c>
@@ -3018,10 +3004,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="29">
+      <c r="G11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="23">
         <f t="shared" si="8"/>
         <v>90054427050</v>
       </c>
@@ -3029,10 +3015,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="29">
+      <c r="J11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="23">
         <f t="shared" si="9"/>
         <v>108065312460</v>
       </c>
@@ -3040,10 +3026,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="29">
+      <c r="M11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="23">
         <f t="shared" si="10"/>
         <v>126076197870</v>
       </c>
@@ -3061,9 +3047,9 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="29">
+        <v>33</v>
+      </c>
+      <c r="B12" s="23">
         <f t="shared" si="6"/>
         <v>1134685780830</v>
       </c>
@@ -3071,10 +3057,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="D12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="7"/>
         <v>1512914374440</v>
       </c>
@@ -3082,10 +3068,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="G12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="23">
         <f t="shared" si="8"/>
         <v>1891142968050</v>
       </c>
@@ -3093,10 +3079,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="29">
+      <c r="J12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="23">
         <f t="shared" si="9"/>
         <v>2269371561660</v>
       </c>
@@ -3104,10 +3090,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="29">
+      <c r="M12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="23">
         <f t="shared" si="10"/>
         <v>2647600155270</v>
       </c>
@@ -3125,9 +3111,9 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="29">
+        <v>34</v>
+      </c>
+      <c r="B13" s="23">
         <f t="shared" si="6"/>
         <v>23828401397430</v>
       </c>
@@ -3135,10 +3121,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="D13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23">
         <f t="shared" si="7"/>
         <v>31771201863240</v>
       </c>
@@ -3146,10 +3132,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="G13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="23">
         <f t="shared" si="8"/>
         <v>39714002329050</v>
       </c>
@@ -3157,10 +3143,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="29">
+      <c r="J13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="23">
         <f t="shared" si="9"/>
         <v>47656802794860</v>
       </c>
@@ -3168,10 +3154,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="29">
+      <c r="M13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="23">
         <f t="shared" si="10"/>
         <v>55599603260670</v>
       </c>
@@ -3189,9 +3175,9 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="29">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23">
         <f t="shared" si="6"/>
         <v>500396429346030</v>
       </c>
@@ -3199,10 +3185,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="D14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23">
         <f t="shared" si="7"/>
         <v>667195239128040</v>
       </c>
@@ -3210,10 +3196,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="23">
         <f t="shared" si="8"/>
         <v>833994048910050</v>
       </c>
@@ -3221,10 +3207,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="29">
+      <c r="J14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="23">
         <f t="shared" si="9"/>
         <v>1000792858692060</v>
       </c>
@@ -3232,10 +3218,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="29">
+      <c r="M14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="23">
         <f t="shared" si="10"/>
         <v>1167591668474070</v>
       </c>
@@ -3253,9 +3239,9 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="29">
+        <v>24</v>
+      </c>
+      <c r="B15" s="23">
         <f t="shared" si="6"/>
         <v>1.050832501626663E+16</v>
       </c>
@@ -3263,10 +3249,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="29">
+      <c r="D15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="23">
         <f t="shared" si="7"/>
         <v>1.401110002168884E+16</v>
       </c>
@@ -3274,10 +3260,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="G15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="23">
         <f t="shared" si="8"/>
         <v>1.751387502711105E+16</v>
       </c>
@@ -3285,10 +3271,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="J15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="23">
         <f t="shared" si="9"/>
         <v>2.101665003253326E+16</v>
       </c>
@@ -3296,10 +3282,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="29">
+      <c r="M15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="23">
         <f t="shared" si="10"/>
         <v>2.4519425037955472E+16</v>
       </c>
@@ -3316,10 +3302,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23">
         <f t="shared" si="6"/>
         <v>2.2067482534159923E+17</v>
       </c>
@@ -3327,10 +3313,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="23">
         <f t="shared" si="7"/>
         <v>2.9423310045546566E+17</v>
       </c>
@@ -3338,10 +3324,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="23">
         <f t="shared" si="8"/>
         <v>3.6779137556933203E+17</v>
       </c>
@@ -3349,10 +3335,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="29">
+      <c r="J16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="23">
         <f t="shared" si="9"/>
         <v>4.4134965068319846E+17</v>
       </c>
@@ -3360,10 +3346,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="29">
+      <c r="M16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="23">
         <f t="shared" si="10"/>
         <v>5.149079257970649E+17</v>
       </c>
@@ -3380,10 +3366,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23">
         <f t="shared" si="6"/>
         <v>4.6341713321735844E+18</v>
       </c>
@@ -3391,10 +3377,10 @@
         <f t="shared" si="0"/>
         <v>21.000000000000004</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="D17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="23">
         <f t="shared" si="7"/>
         <v>6.1788951095647785E+18</v>
       </c>
@@ -3402,10 +3388,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="G17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="23">
         <f t="shared" si="8"/>
         <v>7.7236188869559726E+18</v>
       </c>
@@ -3413,10 +3399,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="J17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="23">
         <f t="shared" si="9"/>
         <v>9.2683426643471688E+18</v>
       </c>
@@ -3424,10 +3410,10 @@
         <f t="shared" si="3"/>
         <v>21.000000000000004</v>
       </c>
-      <c r="M17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="29">
+      <c r="M17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="23">
         <f t="shared" si="10"/>
         <v>1.0813066441738363E+19</v>
       </c>
@@ -3445,9 +3431,9 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="29">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23">
         <f t="shared" si="6"/>
         <v>9.7317597975645274E+19</v>
       </c>
@@ -3455,10 +3441,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="D18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="23">
         <f t="shared" si="7"/>
         <v>1.2975679730086035E+20</v>
       </c>
@@ -3466,10 +3452,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="G18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="23">
         <f t="shared" si="8"/>
         <v>1.6219599662607542E+20</v>
       </c>
@@ -3477,10 +3463,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="29">
+      <c r="J18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="23">
         <f t="shared" si="9"/>
         <v>1.9463519595129055E+20</v>
       </c>
@@ -3488,10 +3474,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M18" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="29">
+      <c r="M18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="23">
         <f t="shared" si="10"/>
         <v>2.2707439527650561E+20</v>
       </c>
@@ -3500,7 +3486,7 @@
         <v>21</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S32" si="11">S17*7</f>
+        <f t="shared" ref="S18:S31" si="11">S17*7</f>
         <v>4747561509943</v>
       </c>
       <c r="T18">
@@ -3509,9 +3495,9 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="29">
+        <v>6</v>
+      </c>
+      <c r="B19" s="23">
         <f t="shared" si="6"/>
         <v>2.0436695574885507E+21</v>
       </c>
@@ -3519,10 +3505,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="D19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="23">
         <f t="shared" si="7"/>
         <v>2.7248927433180672E+21</v>
       </c>
@@ -3530,10 +3516,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="29">
+      <c r="G19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="23">
         <f t="shared" si="8"/>
         <v>3.4061159291475838E+21</v>
       </c>
@@ -3541,10 +3527,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="29">
+      <c r="J19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="23">
         <f t="shared" si="9"/>
         <v>4.0873391149771013E+21</v>
       </c>
@@ -3552,10 +3538,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="29">
+      <c r="M19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="23">
         <f t="shared" si="10"/>
         <v>4.7685623008066179E+21</v>
       </c>
@@ -3573,20 +3559,20 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="29">
+        <v>10</v>
+      </c>
+      <c r="B20" s="23">
         <f t="shared" si="6"/>
         <v>4.2917060707259563E+22</v>
       </c>
       <c r="C20" s="18">
-        <f t="shared" ref="C20:C32" si="12">B20/B19</f>
-        <v>21</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="29">
+        <f t="shared" ref="C20:C33" si="12">B20/B19</f>
+        <v>21</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23">
         <f t="shared" si="7"/>
         <v>5.7222747609679415E+22</v>
       </c>
@@ -3594,10 +3580,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="G20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" si="8"/>
         <v>7.1528434512099258E+22</v>
       </c>
@@ -3605,10 +3591,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="29">
+      <c r="J20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="23">
         <f t="shared" si="9"/>
         <v>8.5834121414519126E+22</v>
       </c>
@@ -3616,10 +3602,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="29">
+      <c r="M20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="23">
         <f t="shared" si="10"/>
         <v>1.0013980831693897E+23</v>
       </c>
@@ -3637,9 +3623,9 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="29">
+        <v>11</v>
+      </c>
+      <c r="B21" s="23">
         <f t="shared" si="6"/>
         <v>9.0125827485245088E+23</v>
       </c>
@@ -3647,10 +3633,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="29">
+      <c r="D21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="23">
         <f t="shared" si="7"/>
         <v>1.2016776998032677E+24</v>
       </c>
@@ -3658,10 +3644,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="29">
+      <c r="G21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="23">
         <f t="shared" si="8"/>
         <v>1.5020971247540844E+24</v>
       </c>
@@ -3669,10 +3655,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="29">
+      <c r="J21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="23">
         <f t="shared" si="9"/>
         <v>1.8025165497049018E+24</v>
       </c>
@@ -3680,10 +3666,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="29">
+      <c r="M21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="23">
         <f t="shared" si="10"/>
         <v>2.1029359746557183E+24</v>
       </c>
@@ -3701,9 +3687,9 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="29">
+        <v>12</v>
+      </c>
+      <c r="B22" s="23">
         <f t="shared" si="6"/>
         <v>1.8926423771901469E+25</v>
       </c>
@@ -3711,10 +3697,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="29">
+      <c r="D22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="23">
         <f t="shared" si="7"/>
         <v>2.5235231695868621E+25</v>
       </c>
@@ -3722,10 +3708,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="G22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="23">
         <f t="shared" si="8"/>
         <v>3.1544039619835773E+25</v>
       </c>
@@ -3733,10 +3719,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="29">
+      <c r="J22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="23">
         <f t="shared" si="9"/>
         <v>3.7852847543802938E+25</v>
       </c>
@@ -3744,10 +3730,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="29">
+      <c r="M22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="23">
         <f t="shared" si="10"/>
         <v>4.4161655467770085E+25</v>
       </c>
@@ -3765,9 +3751,9 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="29">
+        <v>13</v>
+      </c>
+      <c r="B23" s="23">
         <f t="shared" si="6"/>
         <v>3.9745489920993085E+26</v>
       </c>
@@ -3775,10 +3761,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="29">
+      <c r="D23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="23">
         <f t="shared" si="7"/>
         <v>5.2993986561324102E+26</v>
       </c>
@@ -3786,10 +3772,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="29">
+      <c r="G23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="23">
         <f t="shared" si="8"/>
         <v>6.6242483201655126E+26</v>
       </c>
@@ -3797,10 +3783,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="29">
+      <c r="J23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="23">
         <f t="shared" si="9"/>
         <v>7.9490979841986171E+26</v>
       </c>
@@ -3808,10 +3794,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="29">
+      <c r="M23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="23">
         <f t="shared" si="10"/>
         <v>9.2739476482317174E+26</v>
       </c>
@@ -3829,9 +3815,9 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="29">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23">
         <f t="shared" si="6"/>
         <v>8.3465528834085484E+27</v>
       </c>
@@ -3839,10 +3825,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="D24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="23">
         <f t="shared" si="7"/>
         <v>1.1128737177878061E+28</v>
       </c>
@@ -3850,10 +3836,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="29">
+      <c r="G24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="23">
         <f t="shared" si="8"/>
         <v>1.3910921472347576E+28</v>
       </c>
@@ -3861,10 +3847,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="29">
+      <c r="J24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="23">
         <f t="shared" si="9"/>
         <v>1.6693105766817097E+28</v>
       </c>
@@ -3872,10 +3858,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="29">
+      <c r="M24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="23">
         <f t="shared" si="10"/>
         <v>1.9475290061286607E+28</v>
       </c>
@@ -3893,9 +3879,9 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23">
         <f t="shared" si="6"/>
         <v>1.752776105515795E+29</v>
       </c>
@@ -3903,10 +3889,10 @@
         <f t="shared" si="12"/>
         <v>20.999999999999996</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="D25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="23">
         <f t="shared" si="7"/>
         <v>2.3370348073543928E+29</v>
       </c>
@@ -3914,10 +3900,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="29">
+      <c r="G25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="23">
         <f t="shared" si="8"/>
         <v>2.9212935091929907E+29</v>
       </c>
@@ -3925,10 +3911,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="29">
+      <c r="J25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="23">
         <f t="shared" si="9"/>
         <v>3.50555221103159E+29</v>
       </c>
@@ -3936,10 +3922,10 @@
         <f t="shared" si="3"/>
         <v>20.999999999999996</v>
       </c>
-      <c r="M25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="29">
+      <c r="M25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="23">
         <f t="shared" si="10"/>
         <v>4.0898109128701878E+29</v>
       </c>
@@ -3957,9 +3943,9 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29">
+        <v>16</v>
+      </c>
+      <c r="B26" s="23">
         <f t="shared" si="6"/>
         <v>3.6808298215831696E+30</v>
       </c>
@@ -3967,10 +3953,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="23">
         <f t="shared" si="7"/>
         <v>4.9077730954442248E+30</v>
       </c>
@@ -3978,10 +3964,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="G26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="23">
         <f t="shared" si="8"/>
         <v>6.1347163693052806E+30</v>
       </c>
@@ -3989,10 +3975,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="29">
+      <c r="J26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="23">
         <f t="shared" si="9"/>
         <v>7.3616596431663392E+30</v>
       </c>
@@ -4000,10 +3986,10 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="29">
+      <c r="M26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="23">
         <f t="shared" si="10"/>
         <v>8.5886029170273945E+30</v>
       </c>
@@ -4021,9 +4007,9 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="29">
+        <v>17</v>
+      </c>
+      <c r="B27" s="23">
         <f t="shared" si="6"/>
         <v>7.7297426253246562E+31</v>
       </c>
@@ -4031,10 +4017,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="D27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="23">
         <f t="shared" si="7"/>
         <v>1.0306323500432872E+32</v>
       </c>
@@ -4042,10 +4028,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="G27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="23">
         <f t="shared" si="8"/>
         <v>1.288290437554109E+32</v>
       </c>
@@ -4053,21 +4039,21 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="29">
+      <c r="J27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="23">
         <f t="shared" si="9"/>
         <v>1.5459485250649312E+32</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" ref="L27:L32" si="13">K27/K26</f>
-        <v>21</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="29">
+        <f t="shared" ref="L27:L33" si="13">K27/K26</f>
+        <v>21</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="23">
         <f t="shared" si="10"/>
         <v>1.8036066125757528E+32</v>
       </c>
@@ -4085,9 +4071,9 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="29">
+        <v>18</v>
+      </c>
+      <c r="B28" s="23">
         <f t="shared" si="6"/>
         <v>1.6232459513181779E+33</v>
       </c>
@@ -4095,32 +4081,32 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="D28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="23">
         <f t="shared" si="7"/>
         <v>2.1643279350909032E+33</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" ref="F28:F32" si="14">E28/E27</f>
-        <v>21</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="29">
-        <f t="shared" ref="H28:H31" si="15">H27*21</f>
+        <f t="shared" ref="F28:F33" si="14">E28/E27</f>
+        <v>21</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" ref="H28:H32" si="15">H27*21</f>
         <v>2.7054099188636289E+33</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="29">
+      <c r="J28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="23">
         <f t="shared" si="9"/>
         <v>3.2464919026363557E+33</v>
       </c>
@@ -4128,10 +4114,10 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="M28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="29">
+      <c r="M28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="23">
         <f t="shared" si="10"/>
         <v>3.7875738864090808E+33</v>
       </c>
@@ -4149,9 +4135,9 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="29">
+        <v>19</v>
+      </c>
+      <c r="B29" s="23">
         <f t="shared" si="6"/>
         <v>3.4088164977681736E+34</v>
       </c>
@@ -4159,10 +4145,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="29">
+      <c r="D29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="23">
         <f t="shared" si="7"/>
         <v>4.5450886636908972E+34</v>
       </c>
@@ -4170,37 +4156,37 @@
         <f t="shared" si="14"/>
         <v>21.000000000000004</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="15"/>
         <v>5.6813608296136204E+34</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" ref="I29:I32" si="16">H29/H28</f>
-        <v>21</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="29">
-        <f t="shared" ref="K29:K31" si="17">K28*21</f>
+        <f t="shared" ref="I29:I33" si="16">H29/H28</f>
+        <v>21</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" ref="K29:K32" si="17">K28*21</f>
         <v>6.8176329955363472E+34</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="M29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="29">
-        <f t="shared" ref="N29:N31" si="18">N28*21</f>
+      <c r="M29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="23">
+        <f t="shared" ref="N29:N32" si="18">N28*21</f>
         <v>7.9539051614590694E+34</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29:O32" si="19">N29/N28</f>
+        <f t="shared" ref="O29:O33" si="19">N29/N28</f>
         <v>21</v>
       </c>
       <c r="S29">
@@ -4213,9 +4199,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="29">
+        <v>20</v>
+      </c>
+      <c r="B30" s="23">
         <f t="shared" si="6"/>
         <v>7.1585146453131649E+35</v>
       </c>
@@ -4223,21 +4209,21 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="29">
-        <f t="shared" ref="E30:E31" si="20">E29*21</f>
+      <c r="D30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="23">
+        <f t="shared" ref="E30:E32" si="20">E29*21</f>
         <v>9.5446861937508841E+35</v>
       </c>
       <c r="F30" s="18">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="G30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="23">
         <f t="shared" si="15"/>
         <v>1.1930857742188603E+36</v>
       </c>
@@ -4245,10 +4231,10 @@
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="29">
+      <c r="J30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="23">
         <f t="shared" si="17"/>
         <v>1.431702929062633E+36</v>
       </c>
@@ -4256,10 +4242,10 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="M30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="29">
+      <c r="M30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="23">
         <f t="shared" si="18"/>
         <v>1.6703200839064045E+36</v>
       </c>
@@ -4277,9 +4263,9 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="29">
+        <v>21</v>
+      </c>
+      <c r="B31" s="23">
         <f t="shared" si="6"/>
         <v>1.5032880755157647E+37</v>
       </c>
@@ -4287,10 +4273,10 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="D31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="23">
         <f t="shared" si="20"/>
         <v>2.0043841006876856E+37</v>
       </c>
@@ -4298,10 +4284,10 @@
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="29">
+      <c r="G31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="23">
         <f t="shared" si="15"/>
         <v>2.5054801258596067E+37</v>
       </c>
@@ -4309,10 +4295,10 @@
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="29">
+      <c r="J31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="23">
         <f t="shared" si="17"/>
         <v>3.0065761510315294E+37</v>
       </c>
@@ -4320,10 +4306,10 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="M31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="29">
+      <c r="M31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="23">
         <f t="shared" si="18"/>
         <v>3.5076721762034494E+37</v>
       </c>
@@ -4340,68 +4326,136 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="31">
-        <f>B31*21</f>
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="23">
+        <f t="shared" si="6"/>
         <v>3.156904958583106E+38</v>
       </c>
       <c r="C32" s="18">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="31">
-        <f>E31*21</f>
+      <c r="D32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" si="20"/>
         <v>4.2092066114441398E+38</v>
       </c>
       <c r="F32" s="18">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="31">
-        <f>H31*21</f>
+      <c r="G32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="15"/>
         <v>5.261508264305174E+38</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="31">
-        <f>K31*21</f>
+      <c r="J32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="17"/>
         <v>6.313809917166212E+38</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="M32" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="31">
-        <f>N31*21</f>
+      <c r="M32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="23">
+        <f t="shared" si="18"/>
         <v>7.3661115700272439E+38</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="18">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="S32">
-        <f t="shared" si="11"/>
+        <f>S31*7</f>
         <v>3.2199057558131799E+24</v>
       </c>
       <c r="T32">
         <v>30</v>
       </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="25">
+        <f>B32*21</f>
+        <v>6.6295004130245231E+39</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" si="12"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="25">
+        <f>E32*21</f>
+        <v>8.8393338840326939E+39</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="25">
+        <f>H32*21</f>
+        <v>1.1049167355040866E+40</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="25">
+        <f>K32*21</f>
+        <v>1.3259000826049046E+40</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="13"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="25">
+        <f>N32*21</f>
+        <v>1.5468834297057212E+40</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="S33">
+        <f>S32*7</f>
+        <v>2.2539340290692261E+25</v>
+      </c>
+      <c r="T33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+      <c r="F34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4420,7 +4474,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,31 +4497,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="19" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="Q1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5457,51 +5511,51 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30">
         <f>SUM(C3:C22)</f>
         <v>60</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39">
+      <c r="F24" s="29"/>
+      <c r="G24" s="30">
         <f>SUM(G3:G22)</f>
         <v>60</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="37" t="s">
+      <c r="H24" s="32"/>
+      <c r="I24" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39">
+      <c r="J24" s="29"/>
+      <c r="K24" s="30">
         <f>SUM(K3:K22)</f>
         <v>60</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="37" t="s">
+      <c r="L24" s="32"/>
+      <c r="M24" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39">
+      <c r="N24" s="29"/>
+      <c r="O24" s="30">
         <f>SUM(O3:O22)</f>
         <v>120</v>
       </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="37" t="s">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="39">
+      <c r="R24" s="29"/>
+      <c r="S24" s="30">
         <f>SUM(S3:S22)</f>
         <v>180</v>
       </c>
-      <c r="T24" s="40">
+      <c r="T24" s="31">
         <f>SUM(C24,G24,K24,O24,S24)</f>
         <v>480</v>
       </c>
@@ -5515,6 +5569,7 @@
     <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5541,31 +5596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="19" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="Q1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5624,7 +5679,7 @@
       <c r="B3" s="14">
         <v>1000000</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5633,7 +5688,7 @@
       <c r="F3" s="14">
         <v>1000000</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="21">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -5642,7 +5697,7 @@
       <c r="J3" s="14">
         <v>1000000</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="21">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -5651,7 +5706,7 @@
       <c r="N3" s="14">
         <v>1000000</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="21">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -5660,10 +5715,10 @@
       <c r="R3" s="14">
         <v>1000000</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="20">
         <v>1</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="20" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5674,7 +5729,7 @@
       <c r="B4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -5683,7 +5738,7 @@
       <c r="F4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -5692,7 +5747,7 @@
       <c r="J4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="21">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -5701,7 +5756,7 @@
       <c r="N4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="21">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -5710,7 +5765,7 @@
       <c r="R4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="20">
         <v>1</v>
       </c>
     </row>
@@ -5721,7 +5776,7 @@
       <c r="B5" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -5730,7 +5785,7 @@
       <c r="F5" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -5739,7 +5794,7 @@
       <c r="J5" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -5748,7 +5803,7 @@
       <c r="N5" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="21">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -5757,7 +5812,7 @@
       <c r="R5" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="20">
         <v>1</v>
       </c>
     </row>
@@ -5768,7 +5823,7 @@
       <c r="B6" s="14">
         <v>1000000</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5777,7 +5832,7 @@
       <c r="F6" s="14">
         <v>1000000</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -5786,7 +5841,7 @@
       <c r="J6" s="14">
         <v>1000000</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="21">
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -5795,7 +5850,7 @@
       <c r="N6" s="14">
         <v>1000000</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="21">
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -5804,7 +5859,7 @@
       <c r="R6" s="14">
         <v>1000000</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="20">
         <v>2</v>
       </c>
     </row>
@@ -5815,7 +5870,7 @@
       <c r="B7" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="21">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -5824,7 +5879,7 @@
       <c r="F7" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="21">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -5833,7 +5888,7 @@
       <c r="J7" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="21">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -5842,7 +5897,7 @@
       <c r="N7" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="21">
         <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -5851,7 +5906,7 @@
       <c r="R7" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="20">
         <v>2</v>
       </c>
     </row>
@@ -5862,7 +5917,7 @@
       <c r="B8" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="21">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5871,7 +5926,7 @@
       <c r="F8" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="21">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -5880,7 +5935,7 @@
       <c r="J8" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="21">
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -5889,7 +5944,7 @@
       <c r="N8" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="21">
         <v>2</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -5898,7 +5953,7 @@
       <c r="R8" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="20">
         <v>2</v>
       </c>
     </row>
@@ -5909,7 +5964,7 @@
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -5936,7 +5991,7 @@
       <c r="N9" s="14">
         <v>1000000</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="21">
         <v>3</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -5945,7 +6000,7 @@
       <c r="R9" s="14">
         <v>1000000</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="20">
         <v>3</v>
       </c>
     </row>
@@ -5956,7 +6011,7 @@
       <c r="B10" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="21">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -5965,7 +6020,7 @@
       <c r="F10" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -5974,7 +6029,7 @@
       <c r="J10" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="21">
         <v>3</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -5983,7 +6038,7 @@
       <c r="N10" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="21">
         <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -5992,7 +6047,7 @@
       <c r="R10" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="20">
         <v>3</v>
       </c>
     </row>
@@ -6003,7 +6058,7 @@
       <c r="B11" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="21">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -6012,7 +6067,7 @@
       <c r="F11" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="21">
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -6021,7 +6076,7 @@
       <c r="J11" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="21">
         <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -6030,7 +6085,7 @@
       <c r="N11" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="21">
         <v>3</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -6039,7 +6094,7 @@
       <c r="R11" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="20">
         <v>3</v>
       </c>
     </row>
@@ -6059,7 +6114,7 @@
       <c r="F12" s="14">
         <v>1000000</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="21">
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -6068,7 +6123,7 @@
       <c r="J12" s="14">
         <v>1000000</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="21">
         <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -6077,7 +6132,7 @@
       <c r="N12" s="14">
         <v>1000000</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="21">
         <v>4</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -6086,7 +6141,7 @@
       <c r="R12" s="14">
         <v>1000000</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="20">
         <v>4</v>
       </c>
     </row>
@@ -6097,7 +6152,7 @@
       <c r="B13" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="21">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -6106,7 +6161,7 @@
       <c r="F13" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="21">
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -6115,7 +6170,7 @@
       <c r="J13" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="21">
         <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -6124,7 +6179,7 @@
       <c r="N13" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="21">
         <v>4</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -6133,7 +6188,7 @@
       <c r="R13" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="20">
         <v>4</v>
       </c>
     </row>
@@ -6144,7 +6199,7 @@
       <c r="B14" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -6153,7 +6208,7 @@
       <c r="F14" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="21">
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -6162,7 +6217,7 @@
       <c r="J14" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="21">
         <v>4</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -6171,7 +6226,7 @@
       <c r="N14" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="21">
         <v>4</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -6180,7 +6235,7 @@
       <c r="R14" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="20">
         <v>4</v>
       </c>
     </row>
@@ -6200,7 +6255,7 @@
       <c r="F15" s="14">
         <v>1000000</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="21">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -6209,7 +6264,7 @@
       <c r="J15" s="14">
         <v>1000000</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="21">
         <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -6218,7 +6273,7 @@
       <c r="N15" s="14">
         <v>1000000</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="21">
         <v>5</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -6227,7 +6282,7 @@
       <c r="R15" s="14">
         <v>1000000</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="20">
         <v>5</v>
       </c>
     </row>
@@ -6238,7 +6293,7 @@
       <c r="B16" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -6247,7 +6302,7 @@
       <c r="F16" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="21">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -6256,7 +6311,7 @@
       <c r="J16" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="21">
         <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -6265,7 +6320,7 @@
       <c r="N16" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="21">
         <v>5</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -6274,7 +6329,7 @@
       <c r="R16" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="20">
         <v>5</v>
       </c>
     </row>
@@ -6285,7 +6340,7 @@
       <c r="B17" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -6294,7 +6349,7 @@
       <c r="F17" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="21">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -6303,7 +6358,7 @@
       <c r="J17" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="21">
         <v>5</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -6312,7 +6367,7 @@
       <c r="N17" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="21">
         <v>5</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -6321,7 +6376,7 @@
       <c r="R17" s="14">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="20">
         <v>5</v>
       </c>
     </row>
@@ -6332,7 +6387,7 @@
       <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="21">
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -6341,7 +6396,7 @@
       <c r="F18" s="14">
         <v>1000000</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="21">
         <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -6350,7 +6405,7 @@
       <c r="J18" s="14">
         <v>1000000</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="21">
         <v>6</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -6359,7 +6414,7 @@
       <c r="N18" s="14">
         <v>1000000</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="21">
         <v>6</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -6368,7 +6423,7 @@
       <c r="R18" s="14">
         <v>1000000</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="20">
         <v>6</v>
       </c>
     </row>
@@ -6379,7 +6434,7 @@
       <c r="B19" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -6388,7 +6443,7 @@
       <c r="F19" s="14">
         <v>1E+30</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="21">
         <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -6397,7 +6452,7 @@
       <c r="J19" s="14">
         <v>1E+30</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="21">
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -6406,7 +6461,7 @@
       <c r="N19" s="14">
         <v>1E+30</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="21">
         <v>6</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -6415,7 +6470,7 @@
       <c r="R19" s="14">
         <v>1E+30</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="20">
         <v>6</v>
       </c>
     </row>
@@ -6426,7 +6481,7 @@
       <c r="B20" s="15">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="22">
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -6435,7 +6490,7 @@
       <c r="F20" s="15">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="22">
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -6444,7 +6499,7 @@
       <c r="J20" s="15">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="22">
         <v>6</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -6453,7 +6508,7 @@
       <c r="N20" s="15">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="22">
         <v>6</v>
       </c>
       <c r="Q20" s="3" t="s">
@@ -6462,56 +6517,56 @@
       <c r="R20" s="15">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30">
         <f>SUM(C3:C20)</f>
         <v>63</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="37" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39">
+      <c r="F22" s="29"/>
+      <c r="G22" s="30">
         <f>SUM(G3:G20)</f>
         <v>63</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="37" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39">
+      <c r="J22" s="29"/>
+      <c r="K22" s="30">
         <f>SUM(K3:K20)</f>
         <v>63</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="37" t="s">
+      <c r="L22" s="32"/>
+      <c r="M22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39">
+      <c r="N22" s="29"/>
+      <c r="O22" s="30">
         <f>SUM(O3:O20)</f>
         <v>63</v>
       </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="37" t="s">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="39">
+      <c r="R22" s="29"/>
+      <c r="S22" s="30">
         <f>SUM(S3:S20)</f>
         <v>63</v>
       </c>
-      <c r="T22" s="40">
+      <c r="T22" s="31">
         <f>SUM(C22,G22,K22,O22,S22)</f>
         <v>315</v>
       </c>
@@ -6543,14 +6598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6843,12 +6898,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="5" r:id="rId1"/>
@@ -1073,6 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,7 +1101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,14 +1435,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1589,14 +1589,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1746,14 +1746,14 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1903,14 +1903,14 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -2060,14 +2060,14 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -2415,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2432,31 +2432,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
+      <c r="C34" s="33"/>
       <c r="F34" s="18"/>
     </row>
   </sheetData>
@@ -4497,31 +4497,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5577,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5596,31 +5596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5729,8 +5729,8 @@
       <c r="B4" s="14">
         <v>1E+30</v>
       </c>
-      <c r="C4" s="21">
-        <v>1</v>
+      <c r="C4" s="16">
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>154</v>
@@ -6528,7 +6528,7 @@
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>SUM(C3:C20)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="28" t="s">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="T22" s="31">
         <f>SUM(C22,G22,K22,O22,S22)</f>
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6598,14 +6598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6898,12 +6898,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="951">
   <si>
     <t>Potatoes</t>
   </si>
@@ -3174,7 +3174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3540,7 +3540,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4569,7 +4569,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,7 +6306,7 @@
       <c r="D33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="30">
         <f t="shared" si="1"/>
         <v>2.5549299572596136E+40</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="G33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="30">
         <f t="shared" si="2"/>
         <v>9.2731759292806097E+40</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="J33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="30">
         <f t="shared" si="3"/>
         <v>3.186010951922015E+41</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="M33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="30">
         <f t="shared" si="4"/>
         <v>1.040834085586084E+42</v>
       </c>
@@ -17338,7 +17338,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17665,7 +17665,7 @@
       <c r="J7" s="14">
         <v>1E+20</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="16">
         <f>K6+5</f>
         <v>19</v>
       </c>
@@ -17675,7 +17675,7 @@
       <c r="N7" s="14">
         <v>1E+20</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="16">
         <f>O6+5</f>
         <v>21</v>
       </c>
@@ -17801,7 +17801,7 @@
       <c r="B10" s="14">
         <v>1E+20</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="16">
         <f>C9+5</f>
         <v>20</v>
       </c>
@@ -17811,7 +17811,7 @@
       <c r="F10" s="14">
         <v>1E+20</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="16">
         <f>G9+5</f>
         <v>22</v>
       </c>
@@ -17957,7 +17957,7 @@
       <c r="B13" s="14">
         <v>1E+20</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="16">
         <f>C12+5</f>
         <v>25</v>
       </c>
@@ -18237,7 +18237,7 @@
       <c r="J18" s="14">
         <v>1000</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="16">
         <f>K15+5</f>
         <v>34</v>
       </c>
@@ -18433,7 +18433,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18672,9 +18672,9 @@
       <c r="F9" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G9" s="45">
-        <f>E9+30</f>
-        <v>65</v>
+      <c r="G9" s="16">
+        <f>E9+40</f>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -18698,9 +18698,9 @@
       <c r="F10" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G10" s="45">
-        <f t="shared" ref="G10:G13" si="0">E10+30</f>
-        <v>70</v>
+      <c r="G10" s="16">
+        <f>G9+5</f>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -18711,22 +18711,22 @@
         <v>939</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:E28" si="1">C10+5</f>
+        <f t="shared" ref="C11:E28" si="0">C10+5</f>
         <v>15</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G11" s="45">
-        <f t="shared" si="0"/>
-        <v>75</v>
+      <c r="G11" s="16">
+        <f t="shared" ref="G11:G13" si="1">G10+5</f>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -18737,22 +18737,22 @@
         <v>939</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G12" s="45">
-        <f t="shared" si="0"/>
-        <v>80</v>
+      <c r="G12" s="16">
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -18763,22 +18763,22 @@
         <v>939</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G13" s="45">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -18789,7 +18789,7 @@
         <v>939</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D14" s="38" t="s">
@@ -18801,8 +18801,8 @@
       <c r="F14" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G14" s="45">
-        <v>70</v>
+      <c r="G14" s="16">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -18813,22 +18813,22 @@
         <v>939</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" ref="E15:E27" si="2">E14+5</f>
+        <f t="shared" ref="E15:E24" si="2">E14+5</f>
         <v>55</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="16">
         <f>G14+5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>193</v>
@@ -18842,7 +18842,7 @@
         <v>939</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D16" s="38" t="s">
@@ -18855,9 +18855,9 @@
       <c r="F16" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="16">
         <f t="shared" ref="G16:G18" si="3">G15+5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>202</v>
@@ -18871,7 +18871,7 @@
         <v>939</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D17" s="38" t="s">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -18897,7 +18897,7 @@
         <v>939</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18923,20 +18923,22 @@
         <v>939</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="16">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="16">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
@@ -18946,7 +18948,7 @@
         <v>939</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D20" s="38" t="s">
@@ -18959,7 +18961,10 @@
       <c r="F20" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="45">
+        <f>G19+5</f>
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
@@ -18969,7 +18974,7 @@
         <v>939</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D21" s="38" t="s">
@@ -18982,7 +18987,10 @@
       <c r="F21" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="45">
+        <f t="shared" ref="G21:G23" si="4">G20+5</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
@@ -18992,7 +19000,7 @@
         <v>939</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D22" s="38" t="s">
@@ -19005,7 +19013,10 @@
       <c r="F22" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="45">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -19015,7 +19026,7 @@
         <v>939</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="D23" s="38" t="s">
@@ -19028,7 +19039,10 @@
       <c r="F23" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="45">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
@@ -19038,20 +19052,22 @@
         <v>939</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="16">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="16">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
@@ -19061,20 +19077,23 @@
         <v>939</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E25" s="45">
-        <f t="shared" si="2"/>
-        <v>105</v>
+      <c r="E25" s="16">
+        <f>E24+10</f>
+        <v>110</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="16">
+        <f>G24+5</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -19084,20 +19103,23 @@
         <v>939</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E26" s="45">
-        <f t="shared" si="2"/>
-        <v>110</v>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:E27" si="5">E25+10</f>
+        <v>120</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="16">
+        <f t="shared" ref="G26:G28" si="6">G25+5</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
@@ -19107,20 +19129,23 @@
         <v>939</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E27" s="45">
-        <f t="shared" si="2"/>
-        <v>115</v>
+      <c r="E27" s="16">
+        <f t="shared" si="5"/>
+        <v>130</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="16">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
@@ -19130,7 +19155,7 @@
         <v>939</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D28" s="38" t="s">
@@ -19142,7 +19167,10 @@
       <c r="F28" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="16">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
@@ -19165,7 +19193,9 @@
       <c r="F29" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="16">
+        <v>150</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -19175,20 +19205,22 @@
         <v>939</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:E32" si="4">C29+10</f>
+        <f t="shared" ref="C30:E32" si="7">C29+10</f>
         <v>120</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="16">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
@@ -19198,20 +19230,22 @@
         <v>939</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>938</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="16">
+        <v>170</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
@@ -19221,18 +19255,22 @@
         <v>939</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>937</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="G32" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
@@ -19255,7 +19293,9 @@
       <c r="F33" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="46">
+        <v>190</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3109,7 +3109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3175,6 +3175,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3557,14 +3558,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3717,14 +3718,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -3880,14 +3881,14 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -4043,14 +4044,14 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -4206,14 +4207,14 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -4596,31 +4597,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="50" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -6400,36 +6401,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="P1" s="47" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="P1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
-      <c r="U1" s="47" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -17338,7 +17339,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17356,31 +17357,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="I1" s="47" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="M1" s="47" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="M1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="47" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="Q1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -17821,7 +17822,7 @@
       <c r="J10" s="14">
         <v>1E+20</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="16">
         <f>K9+5</f>
         <v>24</v>
       </c>
@@ -17831,7 +17832,7 @@
       <c r="N10" s="14">
         <v>1E+20</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="16">
         <f>O9+5</f>
         <v>26</v>
       </c>
@@ -18433,7 +18434,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E18" activeCellId="7" sqref="G21 G20 E20 C20 G18 G17 E17 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18449,36 +18450,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>931</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="59" t="s">
         <v>932</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="59" t="s">
         <v>934</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="I2" s="35" t="s">
         <v>155</v>
       </c>
@@ -18490,7 +18491,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="11" t="s">
         <v>341</v>
       </c>
@@ -18648,10 +18649,10 @@
       <c r="G8" s="2">
         <v>60</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="57" t="s">
         <v>935</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -18980,14 +18981,14 @@
       <c r="D21" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="16">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="16">
         <f t="shared" ref="G21:G23" si="4">G20+5</f>
         <v>110</v>
       </c>
@@ -19006,14 +19007,14 @@
       <c r="D22" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="16">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="47" t="s">
         <v>937</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="16">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
@@ -19032,14 +19033,14 @@
       <c r="D23" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="16">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="16">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -19298,37 +19299,37 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="58" t="s">
         <v>940</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="56" t="s">
         <v>950</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
